--- a/data/trans_bre/P19C04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-6.357984540839334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.919202882919073</v>
+        <v>-4.919202882919074</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.242340483246921</v>
@@ -649,7 +649,7 @@
         <v>-0.3112145830738943</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.320181809881885</v>
+        <v>-0.3201818098818852</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.85630627402816</v>
+        <v>-13.100097187618</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.39522484896913</v>
+        <v>-18.01712774773353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.97565714656069</v>
+        <v>-12.62032111995788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.03620681403605</v>
+        <v>-9.978360954024694</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.536841606398232</v>
+        <v>-0.516345378034174</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5448390844069039</v>
+        <v>-0.5220364642323208</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5654274553909897</v>
+        <v>-0.5333827731548397</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5258335354629735</v>
+        <v>-0.539496468479461</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.218284248417935</v>
+        <v>2.439260142415032</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.726543089578141</v>
+        <v>-1.432120362546331</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3340133040438863</v>
+        <v>1.086258492798816</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.4202934215123055</v>
+        <v>-0.1651743359870298</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1369712685678931</v>
+        <v>0.1577450195723857</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.06625979881202389</v>
+        <v>-0.04902048868251294</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03273012614701829</v>
+        <v>0.08005771095627932</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.01806198626693711</v>
+        <v>0.01117745357400406</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-5.457906641033053</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3124326039008682</v>
+        <v>0.3124326039008654</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1773909606369406</v>
@@ -749,7 +749,7 @@
         <v>-0.2971412625989207</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.04109422491004922</v>
+        <v>0.04109422491004885</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.684596645026547</v>
+        <v>-9.672574692664492</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-16.49950175821288</v>
+        <v>-17.00044585107418</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-11.06836864486701</v>
+        <v>-10.95801690006115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.788937424003765</v>
+        <v>-3.492254318022925</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3621005704117987</v>
+        <v>-0.3628006957316469</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5189458732557207</v>
+        <v>-0.5261163938551525</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5028398252871614</v>
+        <v>-0.5081333944906292</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3750054647417448</v>
+        <v>-0.3406704433626265</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.678906028911576</v>
+        <v>1.487893001278417</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-4.757083578975476</v>
+        <v>-4.66414213993706</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.4156131188413578</v>
+        <v>-0.1179853017731864</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.454135397498</v>
+        <v>3.549178150537751</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08240382437614856</v>
+        <v>0.07325991477266536</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.169616168042914</v>
+        <v>-0.1820452490869927</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.006318477878827622</v>
+        <v>-0.005949651082027079</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6110558764502882</v>
+        <v>0.6737096124776005</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-15.71260985658363</v>
+        <v>-15.05058491559572</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.41728805170561</v>
+        <v>-14.78555060332205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.403366281930636</v>
+        <v>-7.442925396255254</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.729686393340751</v>
+        <v>-8.691980910969434</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6175096187810502</v>
+        <v>-0.6054944194274277</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4834542802930513</v>
+        <v>-0.4665025040449678</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5577608922179305</v>
+        <v>-0.5546540911836875</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3860126326126305</v>
+        <v>-0.3691637314527944</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.147443075301589</v>
+        <v>-2.146048304298652</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.03644519721037</v>
+        <v>-1.029327324774306</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.045581120718862</v>
+        <v>1.804365033367492</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.464082240910834</v>
+        <v>1.548893324689099</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1171885122302287</v>
+        <v>-0.1130024780491753</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.04471609914313045</v>
+        <v>-0.03768109459391255</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2413792301913025</v>
+        <v>0.2269563758969944</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.09259316106170495</v>
+        <v>0.1036367019012779</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-9.812735893693928</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-6.781174264106749</v>
+        <v>-6.78117426410675</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2737873837218801</v>
@@ -949,7 +949,7 @@
         <v>-0.4252285007277375</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3959595990198055</v>
+        <v>-0.3959595990198057</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.443582575623854</v>
+        <v>-10.03809820306794</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-17.03238352946117</v>
+        <v>-17.13909330878196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-16.23007380163453</v>
+        <v>-15.98250307715217</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-13.07473945106853</v>
+        <v>-12.60732880027567</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.511119596049575</v>
+        <v>-0.5394525713721346</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5342390695574687</v>
+        <v>-0.5257731767510279</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6093131869769567</v>
+        <v>-0.5968647687796821</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6057098953681311</v>
+        <v>-0.5798393868176978</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.428005976314758</v>
+        <v>0.9643505305856535</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-3.29083894640371</v>
+        <v>-2.607273621907675</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-3.87604684553792</v>
+        <v>-3.181240816214258</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.409779500158435</v>
+        <v>-1.741713575660233</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1185926796689044</v>
+        <v>0.06606246554815133</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1337773328033653</v>
+        <v>-0.1067761363514896</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.175821254328602</v>
+        <v>-0.1645412798709308</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1029972543931423</v>
+        <v>-0.1177521752058643</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-15.81326667436293</v>
+        <v>-14.27905991724086</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.64847028926424</v>
+        <v>-14.93233214614943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.852305292360972</v>
+        <v>-9.758724871377265</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-14.95849551108495</v>
+        <v>-14.89861860776276</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5908104752503872</v>
+        <v>-0.5521048693926587</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4517328727872604</v>
+        <v>-0.4503457001346942</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4596667275772017</v>
+        <v>-0.4695907852082716</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5645377224998046</v>
+        <v>-0.5483140734578617</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.083980372812796</v>
+        <v>1.688526533975172</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.753586644119338</v>
+        <v>2.767627230098371</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.335673329531957</v>
+        <v>8.973201168391176</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-3.393784563853341</v>
+        <v>-3.166629217434341</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1410459459895771</v>
+        <v>0.1413997312199607</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1153159063924229</v>
+        <v>0.1139807055225576</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7326784164778761</v>
+        <v>0.7909292223426474</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1761761564235576</v>
+        <v>-0.1625705638622227</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-8.014185055605685</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.004135103022573361</v>
+        <v>-0.00413510302256781</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.3454304616008467</v>
@@ -1149,7 +1149,7 @@
         <v>-0.2835370410404315</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.0002047392032631042</v>
+        <v>-0.0002047392032628294</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-12.12187713690948</v>
+        <v>-12.50654945012206</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-17.50841482299911</v>
+        <v>-17.19672940897272</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-15.57852275467725</v>
+        <v>-16.67949133147576</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-5.642527424728954</v>
+        <v>-5.488957008027366</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6078150742668454</v>
+        <v>-0.6334722971783794</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4735728392280472</v>
+        <v>-0.4719969016482229</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4945703092265444</v>
+        <v>-0.5044667681066261</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2426403022702041</v>
+        <v>-0.2367025653307612</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.296191677884118</v>
+        <v>1.744780408378412</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.7349890726082975</v>
+        <v>-1.100919691043693</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-0.2124608222583297</v>
+        <v>-0.5004658501062342</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.131786870354033</v>
+        <v>5.399160025406469</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1199488121838763</v>
+        <v>0.1652093413508105</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.01618920401455152</v>
+        <v>-0.04049665677670287</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.005712511392295426</v>
+        <v>-0.01135375201858606</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2887608473596925</v>
+        <v>0.2974944369377285</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-3.218417843920719</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-3.206022310060261</v>
+        <v>-3.206022310060264</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.2192628020451309</v>
@@ -1249,7 +1249,7 @@
         <v>-0.2376470189132775</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.2584683748436752</v>
+        <v>-0.2584683748436755</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.204859606838243</v>
+        <v>-9.085005614033673</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.86224273806495</v>
+        <v>-11.6536031877882</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.070319438121224</v>
+        <v>-7.797999564517512</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.842506012445887</v>
+        <v>-7.017353099970207</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4154306622751223</v>
+        <v>-0.4045841862655095</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.5118375359896049</v>
+        <v>-0.5123340807806989</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4912887318507634</v>
+        <v>-0.4793648956953184</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4548737855960307</v>
+        <v>-0.4558965445266835</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6091402005472757</v>
+        <v>0.6934659470566753</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.918246156096091</v>
+        <v>-3.038469535859706</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9399291222709618</v>
+        <v>1.198325351465015</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2033026044875526</v>
+        <v>0.1101760759278109</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.03529340820093914</v>
+        <v>0.04516831427504926</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.1560580519072369</v>
+        <v>-0.1661657878851058</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0824455912650736</v>
+        <v>0.1335713609389207</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.0331259198004012</v>
+        <v>0.01601030696032631</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-2.974677982524679</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-10.1520024270632</v>
+        <v>-10.15200242706321</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.2705194252040733</v>
@@ -1349,7 +1349,7 @@
         <v>-0.1817170658180595</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.462802283570166</v>
+        <v>-0.4628022835701662</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-10.36743497574727</v>
+        <v>-9.656637606526616</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-5.798896660821521</v>
+        <v>-5.631184409598736</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-6.682966419820896</v>
+        <v>-6.879300714294226</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-14.1517994352658</v>
+        <v>-13.47950028845306</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4504688535716322</v>
+        <v>-0.4333246482827232</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2996190113575277</v>
+        <v>-0.2956687151281014</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3693407698090411</v>
+        <v>-0.3680423306039619</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5786089905830624</v>
+        <v>-0.5576651685822918</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-1.239110425373322</v>
+        <v>-0.9305206856481724</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.091156654739379</v>
+        <v>2.561603576420358</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9907678578234966</v>
+        <v>0.8381154038477948</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-6.791863481968406</v>
+        <v>-6.043228212421525</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.06457006792363759</v>
+        <v>-0.0440692485157194</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.214438197278326</v>
+        <v>0.1794932518725511</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0684271221014628</v>
+        <v>0.06123165844581375</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3460126952278367</v>
+        <v>-0.3108110483151558</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-4.829771478872153</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-4.862232896229493</v>
+        <v>-4.862232896229497</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.2637653051612142</v>
@@ -1449,7 +1449,7 @@
         <v>-0.2704932072052303</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.2970672917131221</v>
+        <v>-0.2970672917131223</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.35326837853745</v>
+        <v>-7.596227424567554</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.309585799519031</v>
+        <v>-9.382953296226416</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.863528817310141</v>
+        <v>-6.857766082833278</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.400603722204432</v>
+        <v>-6.48798873034841</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.3504454664246425</v>
+        <v>-0.3566994883300048</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.3567122883228632</v>
+        <v>-0.3630117772216809</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.3627856429593299</v>
+        <v>-0.3630029326408975</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.3681336580497945</v>
+        <v>-0.3738002985967098</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-3.177283356707466</v>
+        <v>-3.153019508360243</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.95997770633521</v>
+        <v>-4.991500848034213</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-2.856841843215268</v>
+        <v>-3.030100739421723</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-3.201577048003196</v>
+        <v>-3.268301602448208</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.1685823993322264</v>
+        <v>-0.1654728656848034</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.2089471661927923</v>
+        <v>-0.2106406126498899</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.1709889695383595</v>
+        <v>-0.1830488342306801</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.203882023991594</v>
+        <v>-0.2107608418155868</v>
       </c>
     </row>
     <row r="31">
